--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T15:34:16-05:00</t>
+    <t>2022-07-29T16:31:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-29T16:31:05-05:00</t>
+    <t>2022-08-02T11:06:34-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T11:06:34-05:00</t>
+    <t>2022-08-02T15:12:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T15:12:35-05:00</t>
+    <t>2022-08-09T16:48:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T16:48:03-05:00</t>
+    <t>2022-08-09T17:12:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T17:12:26-05:00</t>
+    <t>2022-08-10T08:52:57-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T08:52:57-05:00</t>
+    <t>2022-08-10T09:42:24-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:42:24-05:00</t>
+    <t>2022-08-10T09:52:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:52:13-05:00</t>
+    <t>2022-08-10T12:44:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T12:44:20-05:00</t>
+    <t>2022-08-10T13:05:09-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:05:09-05:00</t>
+    <t>2022-08-10T13:28:25-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T13:28:25-05:00</t>
+    <t>2022-08-11T16:57:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4a</t>
+    <t>0.1.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-11T16:57:48-05:00</t>
+    <t>2022-08-24T16:05:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T16:05:20-05:00</t>
+    <t>2022-08-31T14:35:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:35:45-05:00</t>
+    <t>2022-09-02T15:43:08-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T15:43:08-05:00</t>
+    <t>2022-09-08T13:29:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T13:29:45-05:00</t>
+    <t>2022-11-09T13:32:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T13:32:08-06:00</t>
+    <t>2022-11-09T14:05:34-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T14:05:34-06:00</t>
+    <t>2022-11-10T14:39:35-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T14:39:35-06:00</t>
+    <t>2023-01-31T11:27:58-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T11:27:58-06:00</t>
+    <t>2023-02-01T09:05:11-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -359,43 +362,45 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>9</v>
@@ -403,22 +408,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -440,106 +445,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -561,12 +566,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:05:11-06:00</t>
+    <t>2023-02-01T09:42:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T09:42:46-06:00</t>
+    <t>2023-02-02T10:26:54-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T10:26:54-06:00</t>
+    <t>2023-02-02T12:45:26-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T12:45:26-06:00</t>
+    <t>2023-02-02T13:14:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:14:50-06:00</t>
+    <t>2023-03-28T10:36:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T09:48:28-05:00</t>
+    <t>2023-05-04T21:27:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
+++ b/docs/ValueSet-cbc-w-differential-unspecified-blood-vs.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:27:58-05:00</t>
+    <t>2023-05-05T10:07:01-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
